--- a/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
+++ b/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,16 @@
           <t>solution time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,7 +499,15 @@
         <v>10771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01400017738342285</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +523,15 @@
         <v>12304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01699995994567871</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +547,15 @@
         <v>9519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +571,15 @@
         <v>6897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +595,15 @@
         <v>4998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +619,15 @@
         <v>5913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.01399993896484375</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +643,15 @@
         <v>4135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.01199984550476074</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +667,15 @@
         <v>1602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01400017738342285</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +691,15 @@
         <v>8576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +715,15 @@
         <v>6139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.01199984550476074</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +739,15 @@
         <v>7277</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.01399993896484375</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -665,7 +763,15 @@
         <v>5314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01399993896484375</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +787,15 @@
         <v>7228</v>
       </c>
       <c r="D14" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.0129997730255127</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -697,7 +811,15 @@
         <v>8564</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -713,7 +835,15 @@
         <v>8175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.01600003242492676</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +859,15 @@
         <v>5817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.01399993896484375</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -745,7 +883,15 @@
         <v>4575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.0130000114440918</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -761,7 +907,15 @@
         <v>3852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +931,15 @@
         <v>6506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.01400017738342285</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +955,15 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.01200008392333984</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,6 +1006,16 @@
           <t>solution time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -850,7 +1030,15 @@
         <v>10771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4380002021789551</v>
+        <v>0.5740001201629639</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2634</v>
       </c>
     </row>
     <row r="3">
@@ -866,7 +1054,15 @@
         <v>12304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9659998416900635</v>
+        <v>1.154999971389771</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3193</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +1078,15 @@
         <v>9519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2740001678466797</v>
+        <v>0.2689998149871826</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2411</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +1102,15 @@
         <v>6599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1069998741149902</v>
+        <v>0.1099998950958252</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1318</v>
       </c>
     </row>
     <row r="6">
@@ -916,6 +1128,14 @@
       <c r="D6" t="n">
         <v>0.0820000171661377</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>919</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -930,7 +1150,15 @@
         <v>5721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06800007820129395</v>
+        <v>0.0840001106262207</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="8">
@@ -946,7 +1174,15 @@
         <v>4135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06400012969970703</v>
+        <v>0.07800006866455078</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>831</v>
       </c>
     </row>
     <row r="9">
@@ -962,7 +1198,15 @@
         <v>1602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03699994087219238</v>
+        <v>0.02999997138977051</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -978,7 +1222,15 @@
         <v>8576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.121999979019165</v>
+        <v>0.1230001449584961</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2059</v>
       </c>
     </row>
     <row r="11">
@@ -994,7 +1246,15 @@
         <v>6139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1080000400543213</v>
+        <v>0.09400010108947754</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1526</v>
       </c>
     </row>
     <row r="12">
@@ -1010,7 +1270,15 @@
         <v>7149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1289999485015869</v>
+        <v>0.09999990463256836</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1683</v>
       </c>
     </row>
     <row r="13">
@@ -1026,7 +1294,15 @@
         <v>5314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0820000171661377</v>
+        <v>0.07299995422363281</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1282</v>
       </c>
     </row>
     <row r="14">
@@ -1042,7 +1318,15 @@
         <v>7109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1600000858306885</v>
+        <v>0.1579999923706055</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1708</v>
       </c>
     </row>
     <row r="15">
@@ -1058,7 +1342,15 @@
         <v>8093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1590001583099365</v>
+        <v>0.1749999523162842</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1965</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1366,15 @@
         <v>7541</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09200000762939453</v>
+        <v>0.1009998321533203</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1731</v>
       </c>
     </row>
     <row r="17">
@@ -1090,7 +1390,15 @@
         <v>5817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06700015068054199</v>
+        <v>0.09599995613098145</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1256</v>
       </c>
     </row>
     <row r="18">
@@ -1106,7 +1414,15 @@
         <v>4575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03900003433227539</v>
+        <v>0.07800006866455078</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>831</v>
       </c>
     </row>
     <row r="19">
@@ -1122,7 +1438,15 @@
         <v>3615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03900003433227539</v>
+        <v>0.09000015258789062</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1462,15 @@
         <v>6506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06100010871887207</v>
+        <v>0.07999992370605469</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1649</v>
       </c>
     </row>
     <row r="21">
@@ -1154,7 +1486,15 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01699995994567871</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,6 +1542,16 @@
           <t># of routes</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1213,13 +1563,21 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>10771</v>
+        <v>10778.99992640805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4119999408721924</v>
+        <v>90.1010000705719</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10926</v>
       </c>
     </row>
     <row r="3">
@@ -1232,13 +1590,21 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>12304</v>
+        <v>12306.99987729298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8710000514984131</v>
+        <v>90.08500003814697</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>13245</v>
       </c>
     </row>
     <row r="4">
@@ -1251,13 +1617,21 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9519</v>
+        <v>9521.999966899311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246999979019165</v>
+        <v>90.07000017166138</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10003</v>
       </c>
     </row>
     <row r="5">
@@ -1270,13 +1644,21 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6599</v>
+        <v>6598.999972250128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08599996566772461</v>
+        <v>90.15999984741211</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5543</v>
       </c>
     </row>
     <row r="6">
@@ -1289,13 +1671,21 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4998</v>
+        <v>4997.999963445223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07899999618530273</v>
+        <v>3.393999814987183</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3886</v>
       </c>
     </row>
     <row r="7">
@@ -1308,13 +1698,21 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5721</v>
+        <v>5720.999982279663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0969998836517334</v>
+        <v>4.984999895095825</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3889</v>
       </c>
     </row>
     <row r="8">
@@ -1327,13 +1725,21 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4135</v>
+        <v>4134.999933539038</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05399990081787109</v>
+        <v>1.475000143051147</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3493</v>
       </c>
     </row>
     <row r="9">
@@ -1349,10 +1755,18 @@
         <v>1602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02200007438659668</v>
+        <v>0.08599996566772461</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>595</v>
       </c>
     </row>
     <row r="10">
@@ -1365,13 +1779,21 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8576</v>
+        <v>8575.999941942224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1119999885559082</v>
+        <v>90.12600016593933</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8569</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1806,21 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6139</v>
+        <v>6138.99997113376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0839998722076416</v>
+        <v>6.233999967575073</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6378</v>
       </c>
     </row>
     <row r="12">
@@ -1403,13 +1833,21 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7149</v>
+        <v>7148.999951728321</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1150000095367432</v>
+        <v>90.05599999427795</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7039</v>
       </c>
     </row>
     <row r="13">
@@ -1422,13 +1860,21 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>5314</v>
+        <v>5313.999952799319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06800007820129395</v>
+        <v>12.18899989128113</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5374</v>
       </c>
     </row>
     <row r="14">
@@ -1441,13 +1887,21 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7109</v>
+        <v>7108.999813137773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1540000438690186</v>
+        <v>10.63299989700317</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7129</v>
       </c>
     </row>
     <row r="15">
@@ -1460,13 +1914,21 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>8093</v>
+        <v>8092.999962206151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1690001487731934</v>
+        <v>90.05900001525879</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>8186</v>
       </c>
     </row>
     <row r="16">
@@ -1479,13 +1941,21 @@
         <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>7541</v>
+        <v>7540.999916911372</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08999991416931152</v>
+        <v>90.04699993133545</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7245</v>
       </c>
     </row>
     <row r="17">
@@ -1498,13 +1968,21 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5817</v>
+        <v>5816.999928200907</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09200000762939453</v>
+        <v>4.301000118255615</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5257</v>
       </c>
     </row>
     <row r="18">
@@ -1517,13 +1995,21 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4575</v>
+        <v>4574.999854645823</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04700016975402832</v>
+        <v>1.069999933242798</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3493</v>
       </c>
     </row>
     <row r="19">
@@ -1536,13 +2022,21 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3615</v>
+        <v>3614.999983532254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03699994087219238</v>
+        <v>0.7669999599456787</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2753</v>
       </c>
     </row>
     <row r="20">
@@ -1555,13 +2049,21 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>6506</v>
+        <v>6505.999982863876</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06500005722045898</v>
+        <v>3.936000108718872</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>6883</v>
       </c>
     </row>
     <row r="21">
@@ -1577,10 +2079,18 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02200007438659668</v>
+        <v>0.07700014114379883</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
+++ b/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Model1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Model2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Model3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Model310" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,7 +499,7 @@
         <v>10771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>12304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         <v>9519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         <v>6897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         <v>4998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01799988746643066</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>5913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>4135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.01100015640258789</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>8576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>6139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>7277</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01600003242492676</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>5314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>7228</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0129997730255127</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>8564</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>8175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>5817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>4575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>3852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>6506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>10771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5740001201629639</v>
+        <v>0.4739999771118164</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>12304</v>
       </c>
       <c r="D3" t="n">
-        <v>1.154999971389771</v>
+        <v>0.9619998931884766</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>9519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2689998149871826</v>
+        <v>0.2660000324249268</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>6599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1099998950958252</v>
+        <v>0.1120002269744873</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>4998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0820000171661377</v>
+        <v>0.1119999885559082</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>5721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0840001106262207</v>
+        <v>0.1150000095367432</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>4135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07800006866455078</v>
+        <v>0.07299995422363281</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>1602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02999997138977051</v>
+        <v>0.03099989891052246</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>8576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1230001449584961</v>
+        <v>0.1460001468658447</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>6139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09400010108947754</v>
+        <v>0.1289999485015869</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>7149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09999990463256836</v>
+        <v>0.1559998989105225</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>5314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07299995422363281</v>
+        <v>0.1390001773834229</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>7109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1579999923706055</v>
+        <v>0.18399977684021</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>8093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1749999523162842</v>
+        <v>0.2349998950958252</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>7541</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1009998321533203</v>
+        <v>0.1140000820159912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>5817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09599995613098145</v>
+        <v>0.2019999027252197</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>4575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07800006866455078</v>
+        <v>0.1150000095367432</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>3615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09000015258789062</v>
+        <v>0.08299994468688965</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>6506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07999992370605469</v>
+        <v>0.1400001049041748</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.0280001163482666</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1563,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>10778.99992640805</v>
+        <v>10770.99999469879</v>
       </c>
       <c r="D2" t="n">
-        <v>90.1010000705719</v>
+        <v>3600.618000030518</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10926</v>
+        <v>227752</v>
       </c>
     </row>
     <row r="3">
@@ -1590,13 +1590,13 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>12306.99987729298</v>
+        <v>12494.99997567427</v>
       </c>
       <c r="D3" t="n">
-        <v>90.08500003814697</v>
+        <v>3601.017999887466</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>13245</v>
+        <v>279398</v>
       </c>
     </row>
     <row r="4">
@@ -1617,13 +1617,13 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9521.999966899311</v>
+        <v>9518.999783110961</v>
       </c>
       <c r="D4" t="n">
-        <v>90.07000017166138</v>
+        <v>3600.436000108719</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>10003</v>
+        <v>201072</v>
       </c>
     </row>
     <row r="5">
@@ -1644,13 +1644,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6598.999972250128</v>
+        <v>6598.999934106854</v>
       </c>
       <c r="D5" t="n">
-        <v>90.15999984741211</v>
+        <v>3600.695000171661</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5543</v>
+        <v>99268</v>
       </c>
     </row>
     <row r="6">
@@ -1671,21 +1671,21 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4997.999963445223</v>
+        <v>4997.999683341697</v>
       </c>
       <c r="D6" t="n">
-        <v>3.393999814987183</v>
+        <v>3600.507999897003</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3886</v>
+        <v>69916</v>
       </c>
     </row>
     <row r="7">
@@ -1698,21 +1698,21 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5720.999982279663</v>
+        <v>5720.999254496943</v>
       </c>
       <c r="D7" t="n">
-        <v>4.984999895095825</v>
+        <v>3600.757999897003</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3889</v>
+        <v>79964</v>
       </c>
     </row>
     <row r="8">
@@ -1725,21 +1725,21 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4134.999933539038</v>
+        <v>4134.999177478211</v>
       </c>
       <c r="D8" t="n">
-        <v>1.475000143051147</v>
+        <v>3607.441999912262</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3493</v>
+        <v>66950</v>
       </c>
     </row>
     <row r="9">
@@ -1752,13 +1752,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1602</v>
+        <v>1601.999998358191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08599996566772461</v>
+        <v>0.8029999732971191</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>595</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="10">
@@ -1779,13 +1779,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8575.999941942224</v>
+        <v>8575.999372841841</v>
       </c>
       <c r="D10" t="n">
-        <v>90.12600016593933</v>
+        <v>3600.623000144958</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8569</v>
+        <v>176244</v>
       </c>
     </row>
     <row r="11">
@@ -1806,21 +1806,21 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6138.99997113376</v>
+        <v>6138.999382766653</v>
       </c>
       <c r="D11" t="n">
-        <v>6.233999967575073</v>
+        <v>3600.554000139236</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6378</v>
+        <v>125484</v>
       </c>
     </row>
     <row r="12">
@@ -1833,13 +1833,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7148.999951728321</v>
+        <v>7148.999629195149</v>
       </c>
       <c r="D12" t="n">
-        <v>90.05599999427795</v>
+        <v>3600.576999902725</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7039</v>
+        <v>135766</v>
       </c>
     </row>
     <row r="13">
@@ -1860,21 +1860,21 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>5313.999952799319</v>
+        <v>5313.513460910006</v>
       </c>
       <c r="D13" t="n">
-        <v>12.18899989128113</v>
+        <v>3634.87700009346</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5374</v>
+        <v>102906</v>
       </c>
     </row>
     <row r="14">
@@ -1887,21 +1887,21 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7108.999813137773</v>
+        <v>7108.998884280798</v>
       </c>
       <c r="D14" t="n">
-        <v>10.63299989700317</v>
+        <v>3600.973999977112</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7129</v>
+        <v>141346</v>
       </c>
     </row>
     <row r="15">
@@ -1914,13 +1914,13 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>8092.999962206151</v>
+        <v>8092.999516291501</v>
       </c>
       <c r="D15" t="n">
-        <v>90.05900001525879</v>
+        <v>3600.71799993515</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8186</v>
+        <v>166110</v>
       </c>
     </row>
     <row r="16">
@@ -1941,13 +1941,13 @@
         <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>7540.999916911372</v>
+        <v>7540.621403651022</v>
       </c>
       <c r="D16" t="n">
-        <v>90.04699993133545</v>
+        <v>3600.673000097275</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7245</v>
+        <v>135604</v>
       </c>
     </row>
     <row r="17">
@@ -1968,21 +1968,21 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5816.999928200907</v>
+        <v>5816.999102917282</v>
       </c>
       <c r="D17" t="n">
-        <v>4.301000118255615</v>
+        <v>3600.576999902725</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5257</v>
+        <v>103886</v>
       </c>
     </row>
     <row r="18">
@@ -1995,21 +1995,21 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4574.999854645823</v>
+        <v>4574.998437223135</v>
       </c>
       <c r="D18" t="n">
-        <v>1.069999933242798</v>
+        <v>3600.417000055313</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3493</v>
+        <v>66950</v>
       </c>
     </row>
     <row r="19">
@@ -2022,13 +2022,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3614.999983532254</v>
+        <v>3615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7669999599456787</v>
+        <v>2692.256999969482</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2753</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="20">
@@ -2049,21 +2049,21 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>6505.999982863876</v>
+        <v>6505.999870973515</v>
       </c>
       <c r="D20" t="n">
-        <v>3.936000108718872</v>
+        <v>3600.544999837875</v>
       </c>
       <c r="E20" t="n">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>maxTimeLimit</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6883</v>
+        <v>142182</v>
       </c>
     </row>
     <row r="21">
@@ -2079,10 +2079,10 @@
         <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07700014114379883</v>
+        <v>0.1380000114440918</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
+++ b/Data/1-hour-interval-madrid/1-hour-interval-madrid/testsuite/results.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Model1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Model2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Model310" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Model32" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Model33" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,10 +497,10 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>10771</v>
+        <v>169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.02699995040893555</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,10 +521,10 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>12304</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01900005340576172</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -544,10 +545,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9519</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -568,10 +569,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6897</v>
+        <v>304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.0540001392364502</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +593,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4998</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01799988746643066</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5913</v>
+        <v>108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01800012588500977</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -640,10 +641,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4135</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.009999990463256836</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -664,10 +665,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -688,10 +689,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8576</v>
+        <v>349</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -712,10 +713,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6139</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -736,10 +737,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7277</v>
+        <v>111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -760,10 +761,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>5314</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -784,10 +785,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7228</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -808,10 +809,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>8564</v>
+        <v>218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.01800012588500977</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -832,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>8175</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
         <v>0.0130000114440918</v>
@@ -856,10 +857,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5817</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -880,10 +881,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4575</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -904,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3852</v>
+        <v>88</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.0130000114440918</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -928,10 +929,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>6506</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01099991798400879</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -952,10 +953,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1027,10 +1028,10 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>10771</v>
+        <v>169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4739999771118164</v>
+        <v>0.2670001983642578</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1051,10 +1052,10 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>12304</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9619998931884766</v>
+        <v>0.4240000247955322</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1075,10 +1076,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9519</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2660000324249268</v>
+        <v>0.187999963760376</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1099,10 +1100,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6599</v>
+        <v>304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1120002269744873</v>
+        <v>0.1089999675750732</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1123,10 +1124,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4998</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1119999885559082</v>
+        <v>0.09899997711181641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1147,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5721</v>
+        <v>108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1150000095367432</v>
+        <v>0.06400012969970703</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1171,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4135</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07299995422363281</v>
+        <v>0.0429999828338623</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1195,10 +1196,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03099989891052246</v>
+        <v>0.03900003433227539</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1219,10 +1220,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8576</v>
+        <v>349</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1460001468658447</v>
+        <v>0.1380000114440918</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1243,10 +1244,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6139</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1289999485015869</v>
+        <v>0.08800005912780762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1267,10 +1268,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7149</v>
+        <v>111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1559998989105225</v>
+        <v>0.1029999256134033</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1291,10 +1292,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>5314</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1390001773834229</v>
+        <v>0.07700014114379883</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1315,10 +1316,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7109</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>0.18399977684021</v>
+        <v>0.1370000839233398</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1339,10 +1340,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>8093</v>
+        <v>218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2349998950958252</v>
+        <v>0.129000186920166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1363,10 +1364,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>7541</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1140000820159912</v>
+        <v>0.1050000190734863</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1387,10 +1388,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5817</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2019999027252197</v>
+        <v>0.07200002670288086</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1411,10 +1412,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4575</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1150000095367432</v>
+        <v>0.06200003623962402</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1435,10 +1436,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3615</v>
+        <v>88</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08299994468688965</v>
+        <v>0.0559999942779541</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1459,10 +1460,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>6506</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1400001049041748</v>
+        <v>0.1349999904632568</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1483,10 +1484,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0280001163482666</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1563,21 +1564,21 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>10770.99999469879</v>
+        <v>169</v>
       </c>
       <c r="D2" t="n">
-        <v>3600.618000030518</v>
+        <v>0.2539999485015869</v>
       </c>
       <c r="E2" t="n">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>227752</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="3">
@@ -1590,21 +1591,21 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>12494.99997567427</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
-        <v>3601.017999887466</v>
+        <v>0.622999906539917</v>
       </c>
       <c r="E3" t="n">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>279398</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="4">
@@ -1617,21 +1618,21 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9518.999783110961</v>
+        <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>3600.436000108719</v>
+        <v>0.1979999542236328</v>
       </c>
       <c r="E4" t="n">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>201072</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="5">
@@ -1644,21 +1645,21 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6598.999934106854</v>
+        <v>304</v>
       </c>
       <c r="D5" t="n">
-        <v>3600.695000171661</v>
+        <v>0.1110000610351562</v>
       </c>
       <c r="E5" t="n">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>99268</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="6">
@@ -1671,21 +1672,21 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4997.999683341697</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3600.507999897003</v>
+        <v>0.06500005722045898</v>
       </c>
       <c r="E6" t="n">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>69916</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7">
@@ -1698,21 +1699,21 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5720.999254496943</v>
+        <v>108</v>
       </c>
       <c r="D7" t="n">
-        <v>3600.757999897003</v>
+        <v>0.06099987030029297</v>
       </c>
       <c r="E7" t="n">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>79964</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8">
@@ -1725,21 +1726,21 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4134.999177478211</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>3607.441999912262</v>
+        <v>0.05899977684020996</v>
       </c>
       <c r="E8" t="n">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>66950</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9">
@@ -1752,13 +1753,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1601.999998358191</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8029999732971191</v>
+        <v>0.03600001335144043</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1766,7 +1767,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3706</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1779,21 +1780,21 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8575.999372841841</v>
+        <v>349</v>
       </c>
       <c r="D10" t="n">
-        <v>3600.623000144958</v>
+        <v>0.1430001258850098</v>
       </c>
       <c r="E10" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>176244</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="11">
@@ -1806,21 +1807,21 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6138.999382766653</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>3600.554000139236</v>
+        <v>0.07899999618530273</v>
       </c>
       <c r="E11" t="n">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>125484</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12">
@@ -1833,21 +1834,21 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7148.999629195149</v>
+        <v>111</v>
       </c>
       <c r="D12" t="n">
-        <v>3600.576999902725</v>
+        <v>0.1140000820159912</v>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>135766</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="13">
@@ -1860,21 +1861,21 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>5313.513460910006</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
-        <v>3634.87700009346</v>
+        <v>0.07799983024597168</v>
       </c>
       <c r="E13" t="n">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>102906</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14">
@@ -1887,21 +1888,21 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7108.998884280798</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>3600.973999977112</v>
+        <v>0.1189999580383301</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>141346</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="15">
@@ -1914,21 +1915,21 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>8092.999516291501</v>
+        <v>218</v>
       </c>
       <c r="D15" t="n">
-        <v>3600.71799993515</v>
+        <v>0.1480000019073486</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>166110</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="16">
@@ -1941,21 +1942,21 @@
         <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>7540.621403651022</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
-        <v>3600.673000097275</v>
+        <v>0.1029999256134033</v>
       </c>
       <c r="E16" t="n">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>135604</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="17">
@@ -1968,21 +1969,21 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5816.999102917282</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>3600.576999902725</v>
+        <v>0.06999993324279785</v>
       </c>
       <c r="E17" t="n">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>103886</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18">
@@ -1995,21 +1996,21 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4574.998437223135</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>3600.417000055313</v>
+        <v>0.06399989128112793</v>
       </c>
       <c r="E18" t="n">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>66950</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19">
@@ -2022,13 +2023,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3615</v>
+        <v>88</v>
       </c>
       <c r="D19" t="n">
-        <v>2692.256999969482</v>
+        <v>0.05900001525878906</v>
       </c>
       <c r="E19" t="n">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2036,7 +2037,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>44894</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20">
@@ -2049,21 +2050,21 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>6505.999870973515</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>3600.544999837875</v>
+        <v>0.1150000095367432</v>
       </c>
       <c r="E20" t="n">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>142182</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="21">
@@ -2076,13 +2077,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1380000114440918</v>
+        <v>0.02699995040893555</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2090,7 +2091,603 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>154</v>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t># of trains</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Objective value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>solution time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># of routes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10800-input</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>169</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.189000129699707</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14400-input</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3919999599456787</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18000-input</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2090001106262207</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21600-input</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>304</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1400001049041748</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25200-input</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07799983024597168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28800-input</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0559999942779541</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>32400-input</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05500006675720215</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3600-input</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02400016784667969</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>36000-input</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>349</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1329998970031738</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>39600-input</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07699990272521973</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>43200-input</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>111</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1130001544952393</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>46800-input</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05999994277954102</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>50400-input</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1489999294281006</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>54000-input</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>218</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1500000953674316</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>57600-input</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>151</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1170001029968262</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>61200-input</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07300019264221191</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>64800-input</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06799983978271484</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>68400-input</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>88</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06200003623962402</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7200-input</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1329998970031738</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>72000-input</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02200007438659668</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
